--- a/biology/Zoologie/Blattidae/Blattidae.xlsx
+++ b/biology/Zoologie/Blattidae/Blattidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blatidés
-Les Blattidae (ou blattidés en français) sont une famille de cafards appartenant à l'ordre des Blattodea (Blattaria) compris dans le super-ordre Polyneoptera. On y retrouve une quarantaine de genres et près de 600 espèces de blattes[1]. Plusieurs insectes cosmopolites nuisibles comme la blatte orientale (Blatta orientalis), la blatte américaine (Periplaneta americana), la blatte australienne (Periplaneta australasiae), la blatte brune (Periplaneta brunnea), la blatte de Floride (Eurycotis floridana) et la blatte arlequine (Neostylopyga rhombifolia) font partie de ce groupe[2].
+Les Blattidae (ou blattidés en français) sont une famille de cafards appartenant à l'ordre des Blattodea (Blattaria) compris dans le super-ordre Polyneoptera. On y retrouve une quarantaine de genres et près de 600 espèces de blattes. Plusieurs insectes cosmopolites nuisibles comme la blatte orientale (Blatta orientalis), la blatte américaine (Periplaneta americana), la blatte australienne (Periplaneta australasiae), la blatte brune (Periplaneta brunnea), la blatte de Floride (Eurycotis floridana) et la blatte arlequine (Neostylopyga rhombifolia) font partie de ce groupe.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des sous-familles et des genres[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-familles et des genres :
 Sous-famille Archiblattinae
 Archiblatta Snellen van Vollenhoven, 1862
 Catara Walker, 1868
